--- a/Test/ユーザー登録 テストケース.xlsx
+++ b/Test/ユーザー登録 テストケース.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="113">
   <si>
     <t>テストID</t>
   </si>
@@ -60,7 +60,7 @@
     <t>ユーザー登録</t>
   </si>
   <si>
-    <t>入力値チェック(分岐網羅)</t>
+    <t>入力値チェック(分岐網羅・未入力)</t>
   </si>
   <si>
     <t>登録画面が表示されている状態</t>
@@ -70,11 +70,20 @@
 2. 確認するボタンをクリック</t>
   </si>
   <si>
-    <t>ユーザーID=空文字
-パスワード=Test@1234</t>
-  </si>
-  <si>
-    <t>エラーメッセージ「ユーザーIDを入力してください」が表示されること</t>
+    <t>名前（姓）=佐々木
+名前（名）=美優
+カナ（姓）=ササキ
+カナ（名）=ミウ
+メールアドレス=miusasaki@gmail.com
+パスワード=miu0001
+郵便番号=1234567
+住所（市区町村）=学研都市試験村
+住所（番地）=99-99
+（テスト時には上から1つずつ入れてない状態でテストする）</t>
+  </si>
+  <si>
+    <t>1．入力していない項目にエラーメッセージが表示される
+2．登録画面に留まること</t>
   </si>
   <si>
     <t>高</t>
@@ -93,177 +102,190 @@
 2. 確認するボタンをクリック</t>
   </si>
   <si>
-    <t xml:space="preserve">名前（姓）=佐々木
+    <t>名前（姓）=佐々木
 名前（名）=美優
+カナ（姓）=ササキ
+カナ（名）=ミウ
+メールアドレス=miusasaki@gmail.com
+パスワード=miu0001
+郵便番号=1234567
+住所（市区町村）=学研都市試験村
+住所（番地）=99-99</t>
+  </si>
+  <si>
+    <t>1. 確認画面に遷移すること
+2. 確認画面に入力した内容が表示されていること
+(パスワードに関しては入力した文字数分●表示されていること)</t>
+  </si>
+  <si>
+    <t>UT-003</t>
+  </si>
+  <si>
+    <t>入力値チェック(分岐網羅・指定文字種以外の入力)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 各項目、指定されていない文字種を入力する
+2.確認するボタンをクリック
 </t>
   </si>
   <si>
-    <t>1. ログインに成功すること
-2. ホーム画面に遷移すること
-3. ユーザー名が画面右上に表示されること</t>
-  </si>
-  <si>
-    <t>UT-003</t>
-  </si>
-  <si>
-    <t>異常系（パスワード誤り）</t>
+    <t>名前（姓）＝Ituki
+名前（名）＝Shu
+カナ（姓）=斎宮
+カナ（名）=宗
+メールアドレス=ヴァルパリ＊スクエア
+パスワード=ミカ・マドモアゼル
+郵便番号=Ansan
+住所（市区町村）=＊＊＊＊＊＊square
+住所（番地）=VMS</t>
+  </si>
+  <si>
+    <t>1. 入力した項目にエラーメッセージが表示される
+2. 登録画面に留まること</t>
+  </si>
+  <si>
+    <t>メモ</t>
+  </si>
+  <si>
+    <t>テストパターン</t>
+  </si>
+  <si>
+    <t>命令網羅</t>
+  </si>
+  <si>
+    <t>全ての処理を一度は通すこと(上手く処理できてるか)</t>
+  </si>
+  <si>
+    <t>分岐網羅</t>
+  </si>
+  <si>
+    <t>全ての分岐を一度通すこと</t>
+  </si>
+  <si>
+    <t>条件網羅</t>
+  </si>
+  <si>
+    <t>個々の条件を最低1回は満たすようにテストすること</t>
+  </si>
+  <si>
+    <t>観点カテゴリ</t>
+  </si>
+  <si>
+    <t>チェック項目</t>
+  </si>
+  <si>
+    <t>確認済</t>
+  </si>
+  <si>
+    <t>入力値検証</t>
+  </si>
+  <si>
+    <t>正常値（代表値）のテストケースを作成したか</t>
+  </si>
+  <si>
+    <t>□</t>
+  </si>
+  <si>
+    <t>境界値（最小値・最大値）のテストケースを作成したか</t>
+  </si>
+  <si>
+    <t>空文字・Nullのテストケースを作成したか</t>
+  </si>
+  <si>
+    <t>不正な形式・特殊文字のテストケースを作成したか</t>
+  </si>
+  <si>
+    <t>機能動作</t>
+  </si>
+  <si>
+    <t>正常系の動作確認ケースを作成したか</t>
+  </si>
+  <si>
+    <t>異常系のエラー処理ケースを作成したか</t>
+  </si>
+  <si>
+    <t>例外処理の確認ケースを作成したか</t>
+  </si>
+  <si>
+    <t>画面表示</t>
+  </si>
+  <si>
+    <t>期待する画面遷移のケースを作成したか</t>
+  </si>
+  <si>
+    <t>エラーメッセージ表示のケースを作成したか</t>
+  </si>
+  <si>
+    <t>必須項目のバリデーションケースを作成したか</t>
+  </si>
+  <si>
+    <t>データ処理</t>
+  </si>
+  <si>
+    <t>データベース登録・更新のケースを作成したか</t>
+  </si>
+  <si>
+    <t>データベース削除のケースを作成したか</t>
+  </si>
+  <si>
+    <t>データ検索・取得のケースを作成したか</t>
+  </si>
+  <si>
+    <t>権限・認証</t>
+  </si>
+  <si>
+    <t>権限チェックのケースを作成したか</t>
+  </si>
+  <si>
+    <t>ログイン状態の確認ケースを作成したか</t>
+  </si>
+  <si>
+    <t>単体テスト仕様書テンプレート 使い方ガイド</t>
+  </si>
+  <si>
+    <t>項目名</t>
+  </si>
+  <si>
+    <t>説明</t>
+  </si>
+  <si>
+    <t>記載例</t>
+  </si>
+  <si>
+    <t>注意点</t>
+  </si>
+  <si>
+    <t>各テストケースを一意に識別するID</t>
+  </si>
+  <si>
+    <t>UT-001, UT-002</t>
+  </si>
+  <si>
+    <t>プロジェクト内で重複しないように採番</t>
+  </si>
+  <si>
+    <t>テスト対象の機能やクラス名</t>
+  </si>
+  <si>
+    <t>ログイン認証、ユーザー登録</t>
+  </si>
+  <si>
+    <t>要件定義書・設計書と用語を統一</t>
+  </si>
+  <si>
+    <t>何を確認するテストか</t>
+  </si>
+  <si>
+    <t>入力値チェック、正常系動作確認</t>
+  </si>
+  <si>
+    <t>具体的な検証ポイントを明記</t>
+  </si>
+  <si>
+    <t>テスト実行前に整える条件</t>
   </si>
   <si>
     <t>ログイン画面が表示されている状態</t>
-  </si>
-  <si>
-    <t>1. ユーザーID欄に有効なIDを入力
-2. パスワード欄に誤ったパスワードを入力
-3. ログインボタンをクリック</t>
-  </si>
-  <si>
-    <t>ユーザーID=testuser
-パスワード=WrongPass</t>
-  </si>
-  <si>
-    <t>1. エラーメッセージ「ユーザーIDまたはパスワードが正しくありません」が表示されること
-2. ログイン画面に留まること</t>
-  </si>
-  <si>
-    <t>メモ</t>
-  </si>
-  <si>
-    <t>テストパターン</t>
-  </si>
-  <si>
-    <t>命令網羅</t>
-  </si>
-  <si>
-    <t>全ての処理を一度は通すこと(上手く処理できてるか)</t>
-  </si>
-  <si>
-    <t>分岐網羅</t>
-  </si>
-  <si>
-    <t>全ての分岐を一度通すこと</t>
-  </si>
-  <si>
-    <t>条件網羅</t>
-  </si>
-  <si>
-    <t>個々の条件を最低1回は満たすようにテストすること</t>
-  </si>
-  <si>
-    <t>観点カテゴリ</t>
-  </si>
-  <si>
-    <t>チェック項目</t>
-  </si>
-  <si>
-    <t>確認済</t>
-  </si>
-  <si>
-    <t>入力値検証</t>
-  </si>
-  <si>
-    <t>正常値（代表値）のテストケースを作成したか</t>
-  </si>
-  <si>
-    <t>□</t>
-  </si>
-  <si>
-    <t>境界値（最小値・最大値）のテストケースを作成したか</t>
-  </si>
-  <si>
-    <t>空文字・Nullのテストケースを作成したか</t>
-  </si>
-  <si>
-    <t>不正な形式・特殊文字のテストケースを作成したか</t>
-  </si>
-  <si>
-    <t>機能動作</t>
-  </si>
-  <si>
-    <t>正常系の動作確認ケースを作成したか</t>
-  </si>
-  <si>
-    <t>異常系のエラー処理ケースを作成したか</t>
-  </si>
-  <si>
-    <t>例外処理の確認ケースを作成したか</t>
-  </si>
-  <si>
-    <t>画面表示</t>
-  </si>
-  <si>
-    <t>期待する画面遷移のケースを作成したか</t>
-  </si>
-  <si>
-    <t>エラーメッセージ表示のケースを作成したか</t>
-  </si>
-  <si>
-    <t>必須項目のバリデーションケースを作成したか</t>
-  </si>
-  <si>
-    <t>データ処理</t>
-  </si>
-  <si>
-    <t>データベース登録・更新のケースを作成したか</t>
-  </si>
-  <si>
-    <t>データベース削除のケースを作成したか</t>
-  </si>
-  <si>
-    <t>データ検索・取得のケースを作成したか</t>
-  </si>
-  <si>
-    <t>権限・認証</t>
-  </si>
-  <si>
-    <t>権限チェックのケースを作成したか</t>
-  </si>
-  <si>
-    <t>ログイン状態の確認ケースを作成したか</t>
-  </si>
-  <si>
-    <t>単体テスト仕様書テンプレート 使い方ガイド</t>
-  </si>
-  <si>
-    <t>項目名</t>
-  </si>
-  <si>
-    <t>説明</t>
-  </si>
-  <si>
-    <t>記載例</t>
-  </si>
-  <si>
-    <t>注意点</t>
-  </si>
-  <si>
-    <t>各テストケースを一意に識別するID</t>
-  </si>
-  <si>
-    <t>UT-001, UT-002</t>
-  </si>
-  <si>
-    <t>プロジェクト内で重複しないように採番</t>
-  </si>
-  <si>
-    <t>テスト対象の機能やクラス名</t>
-  </si>
-  <si>
-    <t>ログイン認証、ユーザー登録</t>
-  </si>
-  <si>
-    <t>要件定義書・設計書と用語を統一</t>
-  </si>
-  <si>
-    <t>何を確認するテストか</t>
-  </si>
-  <si>
-    <t>入力値チェック、正常系動作確認</t>
-  </si>
-  <si>
-    <t>具体的な検証ポイントを明記</t>
-  </si>
-  <si>
-    <t>テスト実行前に整える条件</t>
   </si>
   <si>
     <t>環境設定、データ状態なども記載</t>
@@ -806,10 +828,10 @@
       <c r="E2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>19</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -840,7 +862,7 @@
       <c r="F3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>26</v>
       </c>
       <c r="H3" s="2" t="s">
@@ -859,20 +881,20 @@
       <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>20</v>
@@ -884,30 +906,14 @@
       <c r="M4" s="2"/>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -916,36 +922,36 @@
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -1955,13 +1961,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>12</v>
@@ -1969,181 +1975,181 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="C9" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="C12" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="C15" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="2"/>
     </row>
@@ -3154,7 +3160,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -3162,16 +3168,16 @@
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="4">
@@ -3179,13 +3185,13 @@
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="5">
@@ -3193,13 +3199,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="6">
@@ -3207,13 +3213,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="7">
@@ -3221,10 +3227,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>80</v>

--- a/Test/ユーザー登録 テストケース.xlsx
+++ b/Test/ユーザー登録 テストケース.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="179">
   <si>
     <t>テストID</t>
   </si>
@@ -66,20 +66,20 @@
     <t>登録画面が表示されている状態</t>
   </si>
   <si>
-    <t>1. 各項目、１つずつ入力していない項目欄を作る
+    <t>1. 全て入力していない項目欄を作る
 2. 確認するボタンをクリック</t>
   </si>
   <si>
-    <t>名前（姓）=佐々木
-名前（名）=美優
-カナ（姓）=ササキ
-カナ（名）=ミウ
-メールアドレス=miusasaki@gmail.com
-パスワード=miu0001
-郵便番号=1234567
-住所（市区町村）=学研都市試験村
-住所（番地）=99-99
-（テスト時には上から1つずつ入れてない状態でテストする）</t>
+    <t xml:space="preserve">名前（姓）=
+名前（名）=
+カナ（姓）=
+カナ（名）=
+メールアドレス=
+パスワード=
+郵便番号=
+住所（市区町村）=
+住所（番地）=
+</t>
   </si>
   <si>
     <t>1．入力していない項目にエラーメッセージが表示される
@@ -90,6 +90,259 @@
   </si>
   <si>
     <t>UT-002</t>
+  </si>
+  <si>
+    <t>入力値チェック(条件網羅・未入力)</t>
+  </si>
+  <si>
+    <t>1. 名前（姓）だけを入力していない項目欄を作る
+2. 確認するボタンをクリック</t>
+  </si>
+  <si>
+    <t>名前（姓）=空欄
+他の欄には何か文字を入れる</t>
+  </si>
+  <si>
+    <t>UT-003</t>
+  </si>
+  <si>
+    <t>1. 名前（名）だけを入力していない項目欄を作る
+2. 確認するボタンをクリック</t>
+  </si>
+  <si>
+    <t>名前（名）=空欄
+他の欄には何か文字を入れる</t>
+  </si>
+  <si>
+    <t>UT-004</t>
+  </si>
+  <si>
+    <t>1. カナ（姓）だけを入力していない項目欄を作る
+2. 確認するボタンをクリック</t>
+  </si>
+  <si>
+    <t>カナ（姓）=空欄
+他の欄には何か文字を入れる</t>
+  </si>
+  <si>
+    <t>UT-005</t>
+  </si>
+  <si>
+    <t>1. カナ（名）だけを入力していない項目欄を作る
+2. 確認するボタンをクリック</t>
+  </si>
+  <si>
+    <t>カナ（名）=空欄
+他の欄には何か文字を入れる</t>
+  </si>
+  <si>
+    <t>UT-006</t>
+  </si>
+  <si>
+    <t>1. メールアドレスだけを入力していない項目欄を作る
+2. 確認するボタンをクリック</t>
+  </si>
+  <si>
+    <t>メールアドレス=空欄
+他の欄には何か文字を入れる</t>
+  </si>
+  <si>
+    <t>UT-007</t>
+  </si>
+  <si>
+    <t>1. パスワードだけを入力していない項目欄を作る
+2. 確認するボタンをクリック</t>
+  </si>
+  <si>
+    <t>パスワード=空欄
+他の欄には何か文字を入れる</t>
+  </si>
+  <si>
+    <t>UT-008</t>
+  </si>
+  <si>
+    <t>1. 郵便番号だけを入力していない項目欄を作る
+2. 確認するボタンをクリック</t>
+  </si>
+  <si>
+    <t>郵便番号=空欄
+他の欄には何か文字を入れる</t>
+  </si>
+  <si>
+    <t>UT-009</t>
+  </si>
+  <si>
+    <t>1. 住所（市区町村）だけを入力していない項目欄を作る
+2. 確認するボタンをクリック</t>
+  </si>
+  <si>
+    <t>住所（市区町村）=空欄
+他の欄には何か文字を入れる</t>
+  </si>
+  <si>
+    <t>UT-010</t>
+  </si>
+  <si>
+    <t>1. 住所（番地）だけを入力していない項目欄を作る
+2. 確認するボタンをクリック</t>
+  </si>
+  <si>
+    <t>住所（番地）=空欄
+他の欄には何か文字を入れる</t>
+  </si>
+  <si>
+    <t>UT-011</t>
+  </si>
+  <si>
+    <t>1. 名前（姓）以外を入力していない項目欄を作る
+2. 確認するボタンをクリック</t>
+  </si>
+  <si>
+    <t>名前（姓）＝ひらがな・漢字・10文字以内
+それ以外の欄は空白</t>
+  </si>
+  <si>
+    <t>UT-012</t>
+  </si>
+  <si>
+    <t>1. 名前（名）以外を入力していない項目欄を作る
+2. 確認するボタンをクリック</t>
+  </si>
+  <si>
+    <t>名前（名）＝ひらがな・漢字・10文字以内
+それ以外の欄は空白</t>
+  </si>
+  <si>
+    <t>UT-013</t>
+  </si>
+  <si>
+    <t>1. カナ（姓）以外を入力していない項目欄を作る
+2. 確認するボタンをクリック</t>
+  </si>
+  <si>
+    <t>カナ（姓）＝カタカナ・10文字以内
+それ以外の欄は空白</t>
+  </si>
+  <si>
+    <t>UT-014</t>
+  </si>
+  <si>
+    <t>1. カナ（名）以外を入力していない項目欄を作る
+2. 確認するボタンをクリック</t>
+  </si>
+  <si>
+    <t>カナ（名）＝カタカナ・10文字以内
+それ以外の欄は空白</t>
+  </si>
+  <si>
+    <t>UT-015</t>
+  </si>
+  <si>
+    <t>1. メールアドレス以外を入力していない項目欄を作る
+2. 確認するボタンをクリック</t>
+  </si>
+  <si>
+    <t>メールアドレス＝半角英数字・半角記号（ハイフン・アットマーク）・100文字以内
+それ以外の欄は空白</t>
+  </si>
+  <si>
+    <t>UT-016</t>
+  </si>
+  <si>
+    <t>1. パスワード以外を入力していない項目欄を作る
+2. 確認するボタンをクリック</t>
+  </si>
+  <si>
+    <t>パスワード=半角英数字・10文字以内
+それ以外の欄は空白</t>
+  </si>
+  <si>
+    <t>UT-017</t>
+  </si>
+  <si>
+    <t>1. 郵便番号以外を入力していない項目欄を作る
+2. 確認するボタンをクリック</t>
+  </si>
+  <si>
+    <t>郵便番号=半角数字・7文字以内
+それ以外の欄は空白</t>
+  </si>
+  <si>
+    <t>UT-018</t>
+  </si>
+  <si>
+    <t>1. 住所（市区町村）以外を入力していない項目欄を作る
+2. 確認するボタンをクリック</t>
+  </si>
+  <si>
+    <t>住所（市区町村）=ひらがな・漢字・カタカナ・数字・記号（ハイフン・スペース）のみ・10文字
+それ以外の欄は空白</t>
+  </si>
+  <si>
+    <t>UT-019</t>
+  </si>
+  <si>
+    <t>1. 住所（番地）以外を入力していない項目欄を作る
+2. 確認するボタンをクリック</t>
+  </si>
+  <si>
+    <t>住所（番地）=ひらがな・漢字・カタカナ・数字・記号（ハイフン・スペース）のみ・100文字
+それ以外の欄は空白</t>
+  </si>
+  <si>
+    <t>UT-020</t>
+  </si>
+  <si>
+    <t>入力値チェック(分岐網羅・指定文字種以外の入力)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 名前（姓）にカタカナを入力する
+2.確認するボタンをクリック
+</t>
+  </si>
+  <si>
+    <t>名前（姓）＝カタカナの文字列
+他の欄には文字を入力</t>
+  </si>
+  <si>
+    <t>1. 入力した項目にエラーメッセージが表示される
+2. 登録画面に留まること</t>
+  </si>
+  <si>
+    <t>UT-021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 名前（姓）に半角英数字を入力する
+2.確認するボタンをクリック
+</t>
+  </si>
+  <si>
+    <t>名前（姓）＝半角英数字の文字列
+他の欄には文字を入力</t>
+  </si>
+  <si>
+    <t>UT-022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 名前（名）にカタカナを入力する
+2.確認するボタンをクリック
+</t>
+  </si>
+  <si>
+    <t>名前（名）＝カタカナの文字列
+他の欄には文字を入力</t>
+  </si>
+  <si>
+    <t>UT-023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 名前（名）に半角英数字を入力する
+2.確認するボタンをクリック
+</t>
+  </si>
+  <si>
+    <t>名前（名）＝半角英数字の文字列
+他の欄には文字を入力</t>
   </si>
   <si>
     <t>正常系動作確認(命令網羅)</t>
@@ -118,12 +371,6 @@
 (パスワードに関しては入力した文字数分●表示されていること)</t>
   </si>
   <si>
-    <t>UT-003</t>
-  </si>
-  <si>
-    <t>入力値チェック(分岐網羅・指定文字種以外の入力)</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. 各項目、指定されていない文字種を入力する
 2.確認するボタンをクリック
 </t>
@@ -140,10 +387,6 @@
 住所（番地）=VMS</t>
   </si>
   <si>
-    <t>1. 入力した項目にエラーメッセージが表示される
-2. 登録画面に留まること</t>
-  </si>
-  <si>
     <t>メモ</t>
   </si>
   <si>
@@ -166,6 +409,9 @@
   </si>
   <si>
     <t>個々の条件を最低1回は満たすようにテストすること</t>
+  </si>
+  <si>
+    <t>例は可能な入力種の説明を書きこんで</t>
   </si>
   <si>
     <t>観点カテゴリ</t>
@@ -844,7 +1090,7 @@
       <c r="M2" s="2"/>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -854,16 +1100,16 @@
         <v>22</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="G3" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>20</v>
@@ -875,26 +1121,26 @@
       <c r="M3" s="2"/>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>27</v>
+      <c r="A4" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>20</v>
@@ -906,58 +1152,625 @@
       <c r="M4" s="2"/>
     </row>
     <row r="5">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="A5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
     </row>
+    <row r="6">
+      <c r="A6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+    </row>
     <row r="13">
-      <c r="A13" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="A13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="s">
-        <v>33</v>
-      </c>
+      <c r="A14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>35</v>
-      </c>
+      <c r="A15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="A16" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
+      <c r="A17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+    </row>
     <row r="25" ht="15.75" customHeight="1"/>
     <row r="26" ht="15.75" customHeight="1"/>
     <row r="27" ht="15.75" customHeight="1"/>
@@ -1040,15 +1853,108 @@
     <row r="104" ht="15.75" customHeight="1"/>
     <row r="105" ht="15.75" customHeight="1"/>
     <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1">
+      <c r="A107" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I107" s="2"/>
+      <c r="J107" s="2"/>
+      <c r="K107" s="2"/>
+      <c r="L107" s="2"/>
+      <c r="M107" s="2"/>
+    </row>
+    <row r="108" ht="15.75" customHeight="1">
+      <c r="A108" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I108" s="2"/>
+      <c r="J108" s="2"/>
+      <c r="K108" s="2"/>
+      <c r="L108" s="2"/>
+      <c r="M108" s="2"/>
+    </row>
+    <row r="109" ht="15.75" customHeight="1">
+      <c r="A109" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="110" ht="15.75" customHeight="1">
+      <c r="A110" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="111" ht="15.75" customHeight="1">
+      <c r="A111" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="112" ht="15.75" customHeight="1">
+      <c r="A112" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="113" ht="15.75" customHeight="1">
+      <c r="A113" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
     <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1">
+      <c r="A115" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
     <row r="116" ht="15.75" customHeight="1"/>
     <row r="117" ht="15.75" customHeight="1"/>
     <row r="118" ht="15.75" customHeight="1"/>
@@ -1961,13 +2867,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>12</v>
@@ -1975,181 +2881,181 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>46</v>
+        <v>112</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>47</v>
+        <v>113</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>48</v>
+        <v>114</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>49</v>
+        <v>115</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>49</v>
+        <v>115</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>51</v>
+        <v>117</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>49</v>
+        <v>115</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>52</v>
+        <v>118</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="D8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>53</v>
+        <v>119</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>54</v>
+        <v>120</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="D9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>53</v>
+        <v>119</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>55</v>
+        <v>121</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="D10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>53</v>
+        <v>119</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>56</v>
+        <v>122</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="D11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>57</v>
+        <v>123</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>58</v>
+        <v>124</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="D12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>57</v>
+        <v>123</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>59</v>
+        <v>125</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="D13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>57</v>
+        <v>123</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>60</v>
+        <v>126</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="D14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>61</v>
+        <v>127</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>62</v>
+        <v>128</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="D15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>61</v>
+        <v>127</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="D16" s="2"/>
     </row>
@@ -3160,7 +4066,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="5" t="s">
-        <v>64</v>
+        <v>130</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -3168,16 +4074,16 @@
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>66</v>
+        <v>132</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>67</v>
+        <v>133</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>68</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4">
@@ -3185,13 +4091,13 @@
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>69</v>
+        <v>135</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>70</v>
+        <v>136</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>71</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5">
@@ -3199,13 +4105,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>72</v>
+        <v>138</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>73</v>
+        <v>139</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>74</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6">
@@ -3213,13 +4119,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>77</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7">
@@ -3227,13 +4133,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>78</v>
+        <v>144</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>80</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8">
@@ -3241,27 +4147,27 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>81</v>
+        <v>147</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>83</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>84</v>
+        <v>150</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>85</v>
+        <v>151</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>86</v>
+        <v>152</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>87</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10">
@@ -3269,13 +4175,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>88</v>
+        <v>154</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>89</v>
+        <v>155</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>90</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11">
@@ -3283,13 +4189,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>91</v>
+        <v>157</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>92</v>
+        <v>158</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>93</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12">
@@ -3297,13 +4203,13 @@
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>94</v>
+        <v>160</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>95</v>
+        <v>161</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>96</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13">
@@ -3311,13 +4217,13 @@
         <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>97</v>
+        <v>163</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>98</v>
+        <v>164</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>96</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14">
@@ -3325,13 +4231,13 @@
         <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>99</v>
+        <v>165</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>100</v>
+        <v>166</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>96</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15">
@@ -3339,13 +4245,13 @@
         <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>101</v>
+        <v>167</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>102</v>
+        <v>168</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>96</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16">
@@ -3353,58 +4259,58 @@
         <v>12</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>103</v>
+        <v>169</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>104</v>
+        <v>170</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>105</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="9" t="s">
-        <v>106</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="10" t="s">
-        <v>107</v>
+        <v>173</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>108</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="10" t="s">
-        <v>107</v>
+        <v>173</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>109</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="10" t="s">
-        <v>107</v>
+        <v>173</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>110</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="10" t="s">
-        <v>107</v>
+        <v>173</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>111</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="10" t="s">
-        <v>107</v>
+        <v>173</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>112</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1"/>
